--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01521177410757085</v>
+        <v>0.01179113890272636</v>
       </c>
       <c r="C2">
-        <v>0.9708167685734876</v>
+        <v>0.9527065656392815</v>
       </c>
       <c r="D2">
-        <v>4.187158799028484</v>
+        <v>4.106302077608952</v>
       </c>
       <c r="E2">
-        <v>2.046254822603598</v>
+        <v>2.026401262733754</v>
       </c>
       <c r="F2">
-        <v>2.066558963343684</v>
+        <v>2.046136859441977</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06844627047333725</v>
+        <v>0.06492620600918006</v>
       </c>
       <c r="C3">
-        <v>1.092801458624372</v>
+        <v>1.070932841330739</v>
       </c>
       <c r="D3">
-        <v>4.503710726994156</v>
+        <v>4.414872682735234</v>
       </c>
       <c r="E3">
-        <v>2.122194790068564</v>
+        <v>2.101159842262181</v>
       </c>
       <c r="F3">
-        <v>2.142625186267777</v>
+        <v>2.121054081328115</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02116772330918306</v>
+        <v>0.0188834649839998</v>
       </c>
       <c r="C4">
-        <v>0.973329744212709</v>
+        <v>0.9530525523764629</v>
       </c>
       <c r="D4">
-        <v>3.945249452684095</v>
+        <v>3.865729941648752</v>
       </c>
       <c r="E4">
-        <v>1.986265202002012</v>
+        <v>1.966145961430319</v>
       </c>
       <c r="F4">
-        <v>2.006734846027487</v>
+        <v>1.986015741865533</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.10050846687517</v>
+        <v>0.09692881375077184</v>
       </c>
       <c r="C5">
-        <v>1.118427419803017</v>
+        <v>1.09440480910644</v>
       </c>
       <c r="D5">
-        <v>4.727028183880057</v>
+        <v>4.629837775659457</v>
       </c>
       <c r="E5">
-        <v>2.17417298849012</v>
+        <v>2.151705782782455</v>
       </c>
       <c r="F5">
-        <v>2.194831739464666</v>
+        <v>2.171796906056384</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0001922921193527008</v>
+        <v>-0.000755637588625957</v>
       </c>
       <c r="C6">
-        <v>0.9715821074844706</v>
+        <v>0.9503968899563854</v>
       </c>
       <c r="D6">
-        <v>4.036252245157337</v>
+        <v>3.951250381626263</v>
       </c>
       <c r="E6">
-        <v>2.009042619049516</v>
+        <v>1.987775234181738</v>
       </c>
       <c r="F6">
-        <v>2.030762620643389</v>
+        <v>2.0088103333927</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03979667417747301</v>
+        <v>0.03928990789677742</v>
       </c>
       <c r="C7">
-        <v>1.061946155833414</v>
+        <v>1.033046348395609</v>
       </c>
       <c r="D7">
-        <v>5.074364043989266</v>
+        <v>4.93222755344469</v>
       </c>
       <c r="E7">
-        <v>2.252634911384725</v>
+        <v>2.220861894275439</v>
       </c>
       <c r="F7">
-        <v>2.285165133722665</v>
+        <v>2.252012552851068</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03785245725660052</v>
+        <v>0.03868193857282701</v>
       </c>
       <c r="C8">
-        <v>1.044191336955581</v>
+        <v>1.016268278851836</v>
       </c>
       <c r="D8">
-        <v>5.199413061537246</v>
+        <v>5.049011224985318</v>
       </c>
       <c r="E8">
-        <v>2.280222151795137</v>
+        <v>2.247000495101262</v>
       </c>
       <c r="F8">
-        <v>2.31419420233882</v>
+        <v>2.279467318072585</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.009200515123178269</v>
+        <v>0.02578329123745685</v>
       </c>
       <c r="C9">
-        <v>1.524203204151645</v>
+        <v>1.456619164208787</v>
       </c>
       <c r="D9">
-        <v>9.705596027660711</v>
+        <v>9.170609166841203</v>
       </c>
       <c r="E9">
-        <v>3.115380559042621</v>
+        <v>3.028301366581801</v>
       </c>
       <c r="F9">
-        <v>3.211246773344983</v>
+        <v>3.115983453452396</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.9564592746454904</v>
+        <v>-0.8477958937427421</v>
       </c>
       <c r="C10">
-        <v>1.1283222870229</v>
+        <v>1.04746007141034</v>
       </c>
       <c r="D10">
-        <v>6.853307727363701</v>
+        <v>6.235465529401324</v>
       </c>
       <c r="E10">
-        <v>2.617882298225743</v>
+        <v>2.497091413905651</v>
       </c>
       <c r="F10">
-        <v>2.56872068965345</v>
+        <v>2.463407886881444</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1724578193461484</v>
+        <v>0.2400528213269932</v>
       </c>
       <c r="C2">
-        <v>0.39058239716261</v>
+        <v>0.3753181292658889</v>
       </c>
       <c r="D2">
-        <v>0.3033305724894426</v>
+        <v>0.2348887549825461</v>
       </c>
       <c r="E2">
-        <v>0.550754548314803</v>
+        <v>0.4846532316848265</v>
       </c>
       <c r="F2">
-        <v>0.5414156770869448</v>
+        <v>0.4369199514236829</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2400528213269932</v>
+        <v>0.273599112058131</v>
       </c>
       <c r="C3">
-        <v>0.3753181292658889</v>
+        <v>0.3783303919539526</v>
       </c>
       <c r="D3">
-        <v>0.2348887549825461</v>
+        <v>0.2266048251956944</v>
       </c>
       <c r="E3">
-        <v>0.4846532316848265</v>
+        <v>0.4760302776039508</v>
       </c>
       <c r="F3">
-        <v>0.4369199514236829</v>
+        <v>0.4054553575916278</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.273599112058131</v>
+        <v>0.323052878118673</v>
       </c>
       <c r="C4">
-        <v>0.3783303919539526</v>
+        <v>0.3688046801716363</v>
       </c>
       <c r="D4">
-        <v>0.2266048251956944</v>
+        <v>0.2639536099994781</v>
       </c>
       <c r="E4">
-        <v>0.4760302776039508</v>
+        <v>0.5137641579552608</v>
       </c>
       <c r="F4">
-        <v>0.4054553575916278</v>
+        <v>0.4172513277134101</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.323052878118673</v>
+        <v>0.3213959399964313</v>
       </c>
       <c r="C5">
-        <v>0.3688046801716363</v>
+        <v>0.3527736814977633</v>
       </c>
       <c r="D5">
-        <v>0.2639536099994781</v>
+        <v>0.2405711618554991</v>
       </c>
       <c r="E5">
-        <v>0.5137641579552608</v>
+        <v>0.4904805417705163</v>
       </c>
       <c r="F5">
-        <v>0.4172513277134101</v>
+        <v>0.3885915500499728</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3213959399964313</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="C6">
-        <v>0.3527736814977633</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="D6">
-        <v>0.2405711618554991</v>
+        <v>0.2525516835738419</v>
       </c>
       <c r="E6">
-        <v>0.4904805417705163</v>
+        <v>0.5025452055027905</v>
       </c>
       <c r="F6">
-        <v>0.3885915500499728</v>
+        <v>0.4218095774931774</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3040077233811113</v>
+        <v>0.3195075457514495</v>
       </c>
       <c r="C7">
-        <v>0.3040077233811113</v>
+        <v>0.3344878761007612</v>
       </c>
       <c r="D7">
-        <v>0.2525516835738419</v>
+        <v>0.2334815320987104</v>
       </c>
       <c r="E7">
-        <v>0.5025452055027905</v>
+        <v>0.4831992674856931</v>
       </c>
       <c r="F7">
-        <v>0.4218095774931774</v>
+        <v>0.3844749898822031</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3195075457514495</v>
+        <v>0.3427370110204659</v>
       </c>
       <c r="C8">
-        <v>0.3344878761007612</v>
+        <v>0.3605818570417189</v>
       </c>
       <c r="D8">
-        <v>0.2334815320987104</v>
+        <v>0.2023703037307001</v>
       </c>
       <c r="E8">
-        <v>0.4831992674856931</v>
+        <v>0.4498558699524772</v>
       </c>
       <c r="F8">
-        <v>0.3844749898822031</v>
+        <v>0.3114971130477678</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4513396938152655</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C9">
-        <v>0.4513396938152655</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D9">
-        <v>0.2671320870154189</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E9">
-        <v>0.5168482243516165</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F9">
-        <v>0.275879468903711</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1308504580670433</v>
+        <v>0.2911926455816474</v>
       </c>
       <c r="C10">
-        <v>0.1308504580670433</v>
+        <v>0.3419929353797495</v>
       </c>
       <c r="D10">
-        <v>0.0229929799516238</v>
+        <v>0.3451110422066679</v>
       </c>
       <c r="E10">
-        <v>0.1516343627006221</v>
+        <v>0.587461524022355</v>
       </c>
       <c r="F10">
-        <v>0.09384405342323576</v>
+        <v>0.5589109611011353</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.09392443396517081</v>
+        <v>0.2508072428796626</v>
       </c>
       <c r="C11">
-        <v>0.09392443396517081</v>
+        <v>0.4114187230689154</v>
       </c>
       <c r="D11">
-        <v>0.008821799295677731</v>
+        <v>0.3395202396874553</v>
       </c>
       <c r="E11">
-        <v>0.09392443396517081</v>
+        <v>0.5826836531836596</v>
+      </c>
+      <c r="F11">
+        <v>0.5880220729345085</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2400528213269932</v>
+        <v>0.1724578193461484</v>
       </c>
       <c r="C2">
-        <v>0.3753181292658889</v>
+        <v>0.39058239716261</v>
       </c>
       <c r="D2">
-        <v>0.2348887549825461</v>
+        <v>0.3033305724894426</v>
       </c>
       <c r="E2">
-        <v>0.4846532316848265</v>
+        <v>0.550754548314803</v>
       </c>
       <c r="F2">
-        <v>0.4369199514236829</v>
+        <v>0.5414156770869448</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.273599112058131</v>
+        <v>0.2400528213269932</v>
       </c>
       <c r="C3">
-        <v>0.3783303919539526</v>
+        <v>0.3753181292658889</v>
       </c>
       <c r="D3">
-        <v>0.2266048251956944</v>
+        <v>0.2348887549825461</v>
       </c>
       <c r="E3">
-        <v>0.4760302776039508</v>
+        <v>0.4846532316848265</v>
       </c>
       <c r="F3">
-        <v>0.4054553575916278</v>
+        <v>0.4369199514236829</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.323052878118673</v>
+        <v>0.273599112058131</v>
       </c>
       <c r="C4">
-        <v>0.3688046801716363</v>
+        <v>0.3783303919539526</v>
       </c>
       <c r="D4">
-        <v>0.2639536099994781</v>
+        <v>0.2266048251956944</v>
       </c>
       <c r="E4">
-        <v>0.5137641579552608</v>
+        <v>0.4760302776039508</v>
       </c>
       <c r="F4">
-        <v>0.4172513277134101</v>
+        <v>0.4054553575916278</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3213959399964313</v>
+        <v>0.323052878118673</v>
       </c>
       <c r="C5">
-        <v>0.3527736814977633</v>
+        <v>0.3688046801716363</v>
       </c>
       <c r="D5">
-        <v>0.2405711618554991</v>
+        <v>0.2639536099994781</v>
       </c>
       <c r="E5">
-        <v>0.4904805417705163</v>
+        <v>0.5137641579552608</v>
       </c>
       <c r="F5">
-        <v>0.3885915500499728</v>
+        <v>0.4172513277134101</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3040077233811113</v>
+        <v>0.3213959399964313</v>
       </c>
       <c r="C6">
-        <v>0.3040077233811113</v>
+        <v>0.3527736814977633</v>
       </c>
       <c r="D6">
-        <v>0.2525516835738419</v>
+        <v>0.2405711618554991</v>
       </c>
       <c r="E6">
-        <v>0.5025452055027905</v>
+        <v>0.4904805417705163</v>
       </c>
       <c r="F6">
-        <v>0.4218095774931774</v>
+        <v>0.3885915500499728</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3195075457514495</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="C7">
-        <v>0.3344878761007612</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="D7">
-        <v>0.2334815320987104</v>
+        <v>0.2525516835738419</v>
       </c>
       <c r="E7">
-        <v>0.4831992674856931</v>
+        <v>0.5025452055027905</v>
       </c>
       <c r="F7">
-        <v>0.3844749898822031</v>
+        <v>0.4218095774931774</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3427370110204659</v>
+        <v>0.3195075457514495</v>
       </c>
       <c r="C8">
-        <v>0.3605818570417189</v>
+        <v>0.3344878761007612</v>
       </c>
       <c r="D8">
-        <v>0.2023703037307001</v>
+        <v>0.2334815320987104</v>
       </c>
       <c r="E8">
-        <v>0.4498558699524772</v>
+        <v>0.4831992674856931</v>
       </c>
       <c r="F8">
-        <v>0.3114971130477678</v>
+        <v>0.3844749898822031</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2987280035122604</v>
+        <v>0.3427370110204659</v>
       </c>
       <c r="C9">
-        <v>0.2987280035122604</v>
+        <v>0.3605818570417189</v>
       </c>
       <c r="D9">
-        <v>0.1585806734357395</v>
+        <v>0.2023703037307001</v>
       </c>
       <c r="E9">
-        <v>0.3982218896993729</v>
+        <v>0.4498558699524772</v>
       </c>
       <c r="F9">
-        <v>0.2844280147574629</v>
+        <v>0.3114971130477678</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2911926455816474</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C10">
-        <v>0.3419929353797495</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D10">
-        <v>0.3451110422066679</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E10">
-        <v>0.587461524022355</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F10">
-        <v>0.5589109611011353</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2508072428796626</v>
+        <v>0.2911926455816474</v>
       </c>
       <c r="C11">
-        <v>0.4114187230689154</v>
+        <v>0.3419929353797495</v>
       </c>
       <c r="D11">
-        <v>0.3395202396874553</v>
+        <v>0.3451110422066679</v>
       </c>
       <c r="E11">
-        <v>0.5826836531836596</v>
+        <v>0.587461524022355</v>
       </c>
       <c r="F11">
-        <v>0.5880220729345085</v>
+        <v>0.5589109611011353</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1724578193461484</v>
+        <v>0.01179113890272636</v>
       </c>
       <c r="C2">
-        <v>0.39058239716261</v>
+        <v>0.9527065656392815</v>
       </c>
       <c r="D2">
-        <v>0.3033305724894426</v>
+        <v>4.106302077608952</v>
       </c>
       <c r="E2">
-        <v>0.550754548314803</v>
+        <v>2.026401262733754</v>
       </c>
       <c r="F2">
-        <v>0.5414156770869448</v>
+        <v>2.046136859441977</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2400528213269932</v>
+        <v>0.06492620600918006</v>
       </c>
       <c r="C3">
-        <v>0.3753181292658889</v>
+        <v>1.070932841330739</v>
       </c>
       <c r="D3">
-        <v>0.2348887549825461</v>
+        <v>4.414872682735234</v>
       </c>
       <c r="E3">
-        <v>0.4846532316848265</v>
+        <v>2.101159842262181</v>
       </c>
       <c r="F3">
-        <v>0.4369199514236829</v>
+        <v>2.121054081328115</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.273599112058131</v>
+        <v>0.0188834649839998</v>
       </c>
       <c r="C4">
-        <v>0.3783303919539526</v>
+        <v>0.9530525523764629</v>
       </c>
       <c r="D4">
-        <v>0.2266048251956944</v>
+        <v>3.865729941648752</v>
       </c>
       <c r="E4">
-        <v>0.4760302776039508</v>
+        <v>1.966145961430319</v>
       </c>
       <c r="F4">
-        <v>0.4054553575916278</v>
+        <v>1.986015741865533</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.323052878118673</v>
+        <v>0.09692881375077184</v>
       </c>
       <c r="C5">
-        <v>0.3688046801716363</v>
+        <v>1.09440480910644</v>
       </c>
       <c r="D5">
-        <v>0.2639536099994781</v>
+        <v>4.629837775659457</v>
       </c>
       <c r="E5">
-        <v>0.5137641579552608</v>
+        <v>2.151705782782455</v>
       </c>
       <c r="F5">
-        <v>0.4172513277134101</v>
+        <v>2.171796906056384</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3213959399964313</v>
+        <v>-0.000755637588625957</v>
       </c>
       <c r="C6">
-        <v>0.3527736814977633</v>
+        <v>0.9503968899563854</v>
       </c>
       <c r="D6">
-        <v>0.2405711618554991</v>
+        <v>3.951250381626263</v>
       </c>
       <c r="E6">
-        <v>0.4904805417705163</v>
+        <v>1.987775234181738</v>
       </c>
       <c r="F6">
-        <v>0.3885915500499728</v>
+        <v>2.0088103333927</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3040077233811113</v>
+        <v>0.03928990789677742</v>
       </c>
       <c r="C7">
-        <v>0.3040077233811113</v>
+        <v>1.033046348395609</v>
       </c>
       <c r="D7">
-        <v>0.2525516835738419</v>
+        <v>4.93222755344469</v>
       </c>
       <c r="E7">
-        <v>0.5025452055027905</v>
+        <v>2.220861894275439</v>
       </c>
       <c r="F7">
-        <v>0.4218095774931774</v>
+        <v>2.252012552851068</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3195075457514495</v>
+        <v>0.03868193857282701</v>
       </c>
       <c r="C8">
-        <v>0.3344878761007612</v>
+        <v>1.016268278851836</v>
       </c>
       <c r="D8">
-        <v>0.2334815320987104</v>
+        <v>5.049011224985318</v>
       </c>
       <c r="E8">
-        <v>0.4831992674856931</v>
+        <v>2.247000495101262</v>
       </c>
       <c r="F8">
-        <v>0.3844749898822031</v>
+        <v>2.279467318072585</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3427370110204659</v>
+        <v>0.02578329123745685</v>
       </c>
       <c r="C9">
-        <v>0.3605818570417189</v>
+        <v>1.456619164208787</v>
       </c>
       <c r="D9">
-        <v>0.2023703037307001</v>
+        <v>9.170609166841203</v>
       </c>
       <c r="E9">
-        <v>0.4498558699524772</v>
+        <v>3.028301366581801</v>
       </c>
       <c r="F9">
-        <v>0.3114971130477678</v>
+        <v>3.115983453452396</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2987280035122604</v>
+        <v>-0.8477958937427421</v>
       </c>
       <c r="C10">
-        <v>0.2987280035122604</v>
+        <v>1.04746007141034</v>
       </c>
       <c r="D10">
-        <v>0.1585806734357395</v>
+        <v>6.235465529401324</v>
       </c>
       <c r="E10">
-        <v>0.3982218896993729</v>
+        <v>2.497091413905651</v>
       </c>
       <c r="F10">
-        <v>0.2844280147574629</v>
+        <v>2.463407886881444</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2911926455816474</v>
+        <v>-0.248566666372188</v>
       </c>
       <c r="C11">
-        <v>0.3419929353797495</v>
+        <v>0.301374533835348</v>
       </c>
       <c r="D11">
-        <v>0.3451110422066679</v>
+        <v>0.1561541005302556</v>
       </c>
       <c r="E11">
-        <v>0.587461524022355</v>
+        <v>0.3951633846021865</v>
       </c>
       <c r="F11">
-        <v>0.5589109611011353</v>
+        <v>0.3434543508584382</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
